--- a/indigoData/ecoli_yeh.xlsx
+++ b/indigoData/ecoli_yeh.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7956" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8874" uniqueCount="20">
   <si>
     <t>CHLORAMPHENICOL</t>
   </si>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -173,11 +173,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -229,6 +235,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2253,10 +2265,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C1">
@@ -2264,10 +2276,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -2275,10 +2287,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -2286,10 +2298,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="55" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -2297,10 +2309,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C5">
@@ -2308,10 +2320,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -2319,10 +2331,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C7">
@@ -2330,10 +2342,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C8">
@@ -2341,10 +2353,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C9">
@@ -2352,10 +2364,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C10">
@@ -2363,10 +2375,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C11">
@@ -2374,10 +2386,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C12">
@@ -2385,10 +2397,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -2396,10 +2408,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C14">
@@ -2407,10 +2419,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C15">
@@ -2418,10 +2430,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -2429,10 +2441,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C17">
@@ -2440,10 +2452,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C18">
@@ -2451,10 +2463,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="55" t="s">
         <v>3</v>
       </c>
       <c r="C19">
@@ -2462,10 +2474,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="55" t="s">
         <v>4</v>
       </c>
       <c r="C20">
@@ -2473,10 +2485,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C21">
@@ -2484,10 +2496,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C22">
@@ -2495,10 +2507,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C23">
@@ -2506,10 +2518,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C24">
@@ -2517,10 +2529,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C25">
@@ -2528,10 +2540,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C26">
@@ -2539,10 +2551,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C27">
@@ -2550,10 +2562,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C28">
@@ -2561,10 +2573,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C29">
@@ -2572,10 +2584,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C30">
@@ -2583,10 +2595,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C31">
@@ -2594,10 +2606,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -2605,10 +2617,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C33">
@@ -2616,10 +2628,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="55" t="s">
         <v>3</v>
       </c>
       <c r="C34">
@@ -2627,10 +2639,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="55" t="s">
         <v>4</v>
       </c>
       <c r="C35">
@@ -2638,10 +2650,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C36">
@@ -2649,10 +2661,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C37">
@@ -2660,10 +2672,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C38">
@@ -2671,10 +2683,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -2682,10 +2694,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C40">
@@ -2693,10 +2705,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C41">
@@ -2704,10 +2716,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C42">
@@ -2715,10 +2727,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C43">
@@ -2726,10 +2738,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C44">
@@ -2737,10 +2749,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C45">
@@ -2748,10 +2760,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C46">
@@ -2759,10 +2771,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C47">
@@ -2770,10 +2782,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C48">
@@ -2781,10 +2793,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="55" t="s">
         <v>4</v>
       </c>
       <c r="C49">
@@ -2792,10 +2804,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C50">
@@ -2803,10 +2815,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C51">
@@ -2814,10 +2826,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C52">
@@ -2825,10 +2837,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C53">
@@ -2836,10 +2848,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C54">
@@ -2847,10 +2859,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C55">
@@ -2858,10 +2870,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C56">
@@ -2869,10 +2881,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C57">
@@ -2880,10 +2892,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C58">
@@ -2891,10 +2903,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C59">
@@ -2902,10 +2914,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C60">
@@ -2913,10 +2925,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C61">
@@ -2924,10 +2936,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C62">
@@ -2935,10 +2947,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C63">
@@ -2946,10 +2958,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C64">
@@ -2957,10 +2969,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C65">
@@ -2968,10 +2980,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C66">
@@ -2979,10 +2991,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C67">
@@ -2990,10 +3002,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C68">
@@ -3001,10 +3013,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C69">
@@ -3012,10 +3024,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C70">
@@ -3023,10 +3035,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C71">
@@ -3034,10 +3046,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C72">
@@ -3045,10 +3057,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C73">
@@ -3056,10 +3068,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C74">
@@ -3067,10 +3079,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C75">
@@ -3078,10 +3090,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C76">
@@ -3089,10 +3101,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C77">
@@ -3100,10 +3112,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C78">
@@ -3111,10 +3123,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="49" t="s">
+      <c r="A79" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C79">
@@ -3122,10 +3134,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="49" t="s">
+      <c r="A80" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C80">
@@ -3133,10 +3145,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -3144,10 +3156,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="49" t="s">
+      <c r="A82" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C82">
@@ -3155,10 +3167,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="49" t="s">
+      <c r="A83" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C83">
@@ -3166,10 +3178,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="49" t="s">
+      <c r="A84" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C84">
@@ -3177,10 +3189,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="49" t="s">
+      <c r="A85" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C85">
@@ -3188,10 +3200,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="49" t="s">
+      <c r="A86" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C86">
@@ -3199,10 +3211,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="49" t="s">
+      <c r="A87" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C87">
@@ -3210,10 +3222,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C88">
@@ -3221,10 +3233,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C89">
@@ -3232,10 +3244,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="49" t="s">
+      <c r="B90" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C90">
@@ -3243,10 +3255,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="49" t="s">
+      <c r="A91" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C91">
@@ -3254,10 +3266,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C92">
@@ -3265,10 +3277,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C93">
@@ -3276,10 +3288,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C94">
@@ -3287,10 +3299,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C95">
@@ -3298,10 +3310,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="49" t="s">
+      <c r="A96" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C96">
@@ -3309,10 +3321,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C97">
@@ -3320,10 +3332,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="49" t="s">
+      <c r="A98" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="49" t="s">
+      <c r="B98" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C98">
@@ -3331,10 +3343,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="55" t="s">
         <v>5</v>
       </c>
       <c r="C99">
@@ -3342,10 +3354,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="49" t="s">
+      <c r="A100" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C100">
@@ -3353,10 +3365,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C101">
@@ -3364,10 +3376,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C102">
@@ -3375,10 +3387,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="49" t="s">
+      <c r="B103" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C103">
@@ -3386,10 +3398,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="49" t="s">
+      <c r="A104" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="49" t="s">
+      <c r="B104" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C104">
@@ -3397,10 +3409,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="49" t="s">
+      <c r="B105" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C105">
@@ -3408,10 +3420,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="49" t="s">
+      <c r="B106" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C106">
@@ -3419,10 +3431,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="49" t="s">
+      <c r="B107" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C107">
@@ -3430,10 +3442,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C108">
@@ -3441,10 +3453,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="49" t="s">
+      <c r="A109" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C109">
@@ -3452,10 +3464,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="49" t="s">
+      <c r="A110" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C110">
@@ -3463,10 +3475,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="49" t="s">
+      <c r="A111" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C111">
@@ -3474,10 +3486,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B112" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C112">
@@ -3485,10 +3497,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="49" t="s">
+      <c r="B113" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C113">
@@ -3496,10 +3508,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="49" t="s">
+      <c r="A114" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C114">
@@ -3507,10 +3519,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="49" t="s">
+      <c r="A115" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B115" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C115">
@@ -3518,10 +3530,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C116">
@@ -3529,10 +3541,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="49" t="s">
+      <c r="A117" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="49" t="s">
+      <c r="B117" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C117">
@@ -3540,10 +3552,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="49" t="s">
+      <c r="A118" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="49" t="s">
+      <c r="B118" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C118">
@@ -3551,10 +3563,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C119">
@@ -3562,10 +3574,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="49" t="s">
+      <c r="A120" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C120">
@@ -3573,10 +3585,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="49" t="s">
+      <c r="A121" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="49" t="s">
+      <c r="B121" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C121">
@@ -3584,10 +3596,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="49" t="s">
+      <c r="B122" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C122">
@@ -3595,10 +3607,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="49" t="s">
+      <c r="A123" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C123">
@@ -3606,10 +3618,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="49" t="s">
+      <c r="B124" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C124">
@@ -3617,10 +3629,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="B125" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C125">
@@ -3628,10 +3640,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="49" t="s">
+      <c r="A126" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="49" t="s">
+      <c r="B126" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C126">
@@ -3639,10 +3651,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="49" t="s">
+      <c r="A127" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B127" s="49" t="s">
+      <c r="B127" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C127">
@@ -3650,10 +3662,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="49" t="s">
+      <c r="A128" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B128" s="49" t="s">
+      <c r="B128" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C128">
@@ -3661,10 +3673,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="49" t="s">
+      <c r="A129" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C129">
@@ -3672,10 +3684,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="49" t="s">
+      <c r="B130" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C130">
@@ -3683,10 +3695,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="49" t="s">
+      <c r="A131" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="49" t="s">
+      <c r="B131" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C131">
@@ -3694,10 +3706,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="49" t="s">
+      <c r="A132" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="49" t="s">
+      <c r="B132" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C132">
@@ -3705,10 +3717,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="49" t="s">
+      <c r="A133" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C133">
@@ -3716,10 +3728,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="49" t="s">
+      <c r="A134" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C134">
@@ -3727,10 +3739,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="49" t="s">
+      <c r="A135" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B135" s="49" t="s">
+      <c r="B135" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C135">
@@ -3738,10 +3750,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="49" t="s">
+      <c r="A136" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B136" s="49" t="s">
+      <c r="B136" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C136">
@@ -3749,10 +3761,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="49" t="s">
+      <c r="A137" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="49" t="s">
+      <c r="B137" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C137">
@@ -3760,10 +3772,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="49" t="s">
+      <c r="A138" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="49" t="s">
+      <c r="B138" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C138">
@@ -3771,10 +3783,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="49" t="s">
+      <c r="A139" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C139">
@@ -3782,10 +3794,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="49" t="s">
+      <c r="A140" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C140">
@@ -3793,10 +3805,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="49" t="s">
+      <c r="A141" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C141">
@@ -3804,10 +3816,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="49" t="s">
+      <c r="A142" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C142">
@@ -3815,10 +3827,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="49" t="s">
+      <c r="A143" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C143">
@@ -3826,10 +3838,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="49" t="s">
+      <c r="B144" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C144">
@@ -3837,10 +3849,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="49" t="s">
+      <c r="A145" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="49" t="s">
+      <c r="B145" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C145">
@@ -3848,10 +3860,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="49" t="s">
+      <c r="A146" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="49" t="s">
+      <c r="B146" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C146">
@@ -3859,10 +3871,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="49" t="s">
+      <c r="A147" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="49" t="s">
+      <c r="B147" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C147">
@@ -3870,10 +3882,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B148" s="49" t="s">
+      <c r="A148" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C148">
@@ -3881,10 +3893,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="49" t="s">
+      <c r="A149" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C149">
@@ -3892,10 +3904,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="49" t="s">
+      <c r="A150" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C150">
@@ -3903,10 +3915,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="49" t="s">
+      <c r="A151" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B151" s="49" t="s">
+      <c r="B151" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C151">
@@ -3914,10 +3926,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="49" t="s">
+      <c r="A152" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B152" s="49" t="s">
+      <c r="B152" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C152">
@@ -3925,10 +3937,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="49" t="s">
+      <c r="B153" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C153">
